--- a/scoring/tests/LMIQ/LMIQ93_test_2.xlsx
+++ b/scoring/tests/LMIQ/LMIQ93_test_2.xlsx
@@ -868,37 +868,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>honesty</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -908,111 +908,111 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>honesty</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>emphaty</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>forgiveness</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>emphaty</t>
+          <t>forgiveness</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>raw</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
